--- a/Excel_Practice_Student 2.xlsx
+++ b/Excel_Practice_Student 2.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\CODE\savvyDAP\dap-curriculum\Section02\activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{E18ACC2A-1543-4F25-BACB-5604B8AE5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0FF80105-844D-4950-8485-E188C38B4D88}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="13_ncr:1_{E18ACC2A-1543-4F25-BACB-5604B8AE5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30E91389-9787-448D-ADB3-57BE539508AE}"/>
   <bookViews>
-    <workbookView xWindow="17172" yWindow="-108" windowWidth="17496" windowHeight="10416" firstSheet="2" activeTab="1" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
+    <workbookView xWindow="17172" yWindow="-108" windowWidth="17496" windowHeight="10416" firstSheet="1" activeTab="4" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll" sheetId="1" r:id="rId1"/>
     <sheet name="Loans" sheetId="2" r:id="rId2"/>
     <sheet name="Functions" sheetId="3" r:id="rId3"/>
+    <sheet name="Roster" sheetId="4" r:id="rId4"/>
+    <sheet name="Credit Card" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="225">
   <si>
     <t>Employee Payroll</t>
   </si>
@@ -632,16 +656,99 @@
   </si>
   <si>
     <t>EITHER Fire Type OR less than 60 HP</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Homeroom</t>
+  </si>
+  <si>
+    <t>Sarah Ashworth</t>
+  </si>
+  <si>
+    <t>Social Studies</t>
+  </si>
+  <si>
+    <t>Amanda Johnson</t>
+  </si>
+  <si>
+    <t>David Cline</t>
+  </si>
+  <si>
+    <t>Matthew Roberts</t>
+  </si>
+  <si>
+    <t>Sierra Chadwick</t>
+  </si>
+  <si>
+    <t>Ronnie Dangerfield</t>
+  </si>
+  <si>
+    <t>Thomas Cruise</t>
+  </si>
+  <si>
+    <t>Bradley Swickerwrath</t>
+  </si>
+  <si>
+    <t>Gracie Smith</t>
+  </si>
+  <si>
+    <t>John McDonald</t>
+  </si>
+  <si>
+    <t>Raymond James</t>
+  </si>
+  <si>
+    <t>Semester Grades</t>
+  </si>
+  <si>
+    <t>Credit Card Debt</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Months</t>
+  </si>
+  <si>
+    <t>Total Loan Amount</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>Capital One</t>
+  </si>
+  <si>
+    <t>Citi Card</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Wal-Mart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -675,7 +782,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,6 +810,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70AD47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,7 +946,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -885,17 +1004,22 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -911,6 +1035,1025 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Monthly Payment</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Monthly Payment</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Credit Card'!$B$2:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Discover</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Capital One</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Citi Card</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Target</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Wal-Mart</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Credit Card'!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>806.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4874-475E-85B9-DEBC458BBADC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="445575784"/>
+        <c:axId val="1935169848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="445575784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1935169848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1935169848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Amount</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445575784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D146E1D-D460-024B-6FB5-EE9B81AC90FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1213,7 +2356,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1235,13 +2378,13 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="23">
+      <c r="D1" s="21">
         <v>44853</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="3" spans="1:16" ht="15">
       <c r="A3" s="20" t="s">
@@ -1256,33 +2399,19 @@
       <c r="D3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>5</v>
-      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="20" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="20" t="s">
-        <v>7</v>
-      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
       <c r="N3" s="20" t="s">
         <v>7</v>
       </c>
@@ -1310,14 +2439,10 @@
         <f>C4*D4</f>
         <v>400</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4">
         <f>IF(D4&gt;40,D4-40,0)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
       <c r="O4" s="1">
         <f>0.5*J4*C4</f>
         <v>0</v>
@@ -1344,14 +2469,10 @@
         <f>C5*D5</f>
         <v>525</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5">
         <f t="shared" ref="J5:J14" si="0">IF(D5&gt;40,D5-40,0)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
       <c r="O5" s="1">
         <f>0.5*J5*C5</f>
         <v>0</v>
@@ -1378,14 +2499,10 @@
         <f>C6*D6</f>
         <v>105</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
       <c r="O6" s="1">
         <f>0.5*J6*C6</f>
         <v>0</v>
@@ -1412,14 +2529,10 @@
         <f>C7*D7</f>
         <v>1005.0000000000001</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
       <c r="O7" s="1">
         <f>0.5*J7*C7</f>
         <v>100.5</v>
@@ -1446,14 +2559,10 @@
         <f>C8*D8</f>
         <v>316.25</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
       <c r="O8" s="1">
         <f>0.5*J8*C8</f>
         <v>43.125</v>
@@ -1480,14 +2589,10 @@
         <f>C9*D9</f>
         <v>540</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
       <c r="O9" s="1">
         <f>0.5*J9*C9</f>
         <v>30</v>
@@ -1514,14 +2619,10 @@
         <f>C10*D10</f>
         <v>163.75</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
       <c r="O10" s="1">
         <f>0.5*J10*C10</f>
         <v>0</v>
@@ -1548,14 +2649,10 @@
         <f>C11*D11</f>
         <v>870</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
       <c r="O11" s="1">
         <f>0.5*J11*C11</f>
         <v>0</v>
@@ -1582,14 +2679,10 @@
         <f>C12*D12</f>
         <v>2400</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
       <c r="O12" s="1">
         <f>0.5*J12*C12</f>
         <v>0</v>
@@ -1616,14 +2709,10 @@
         <f>C13*D13</f>
         <v>1760</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
       <c r="O13" s="1">
         <f>0.5*J13*C13</f>
         <v>80</v>
@@ -1650,14 +2739,10 @@
         <f>C14*D14</f>
         <v>550</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
       <c r="O14" s="1">
         <f>0.5*J14*C14</f>
         <v>0</v>
@@ -1675,26 +2760,22 @@
         <f t="shared" ref="C16:D16" si="2">MAX(C4:C14)</f>
         <v>75</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="22">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="1">
         <f>MAX(I4:I14)</f>
         <v>2400</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16">
         <f>MAX(J4:J14)</f>
         <v>15</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
       <c r="O16" s="1">
         <f>MAX(O4:O14)</f>
         <v>100.5</v>
@@ -1712,26 +2793,22 @@
         <f t="shared" ref="C17:D17" si="3">MIN(C4:C14)</f>
         <v>3.5</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="22">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="1">
         <f>MIN(I4:I14)</f>
         <v>105</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17">
         <f t="shared" ref="J17:P17" si="4">MIN(J4:J14)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
       <c r="O17" s="1">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -1749,26 +2826,26 @@
         <f t="shared" ref="C18:D18" si="5">AVERAGE(C4:C14)</f>
         <v>22.081818181818178</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="22">
         <f t="shared" si="5"/>
         <v>37</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="1">
         <f>AVERAGE(I4:I14)</f>
         <v>785</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="22">
         <f t="shared" ref="J18:P18" si="6">AVERAGE(J4:J14)</f>
         <v>3.0909090909090908</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
       <c r="O18" s="1">
         <f t="shared" si="6"/>
         <v>23.056818181818183</v>
@@ -1786,26 +2863,22 @@
         <f t="shared" ref="C19:D19" si="7">SUM(C4:C14)</f>
         <v>242.89999999999998</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="22">
         <f t="shared" si="7"/>
         <v>407</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
       <c r="I19" s="1">
         <f>SUM(I4:I14)</f>
         <v>8635</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19">
         <f t="shared" ref="J19:P19" si="8">SUM(J4:J14)</f>
         <v>34</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
       <c r="O19" s="1">
         <f t="shared" si="8"/>
         <v>253.625</v>
@@ -1825,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5AA2E7-F047-42D2-AD6F-D303D1F75E1A}">
   <dimension ref="A2:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1863,24 +2936,24 @@
       <c r="A3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="23">
         <v>20000</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="24">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="D3">
         <v>12</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="23">
         <f>B3*C3</f>
         <v>1220</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="23">
         <f>SUM(B3,E3)</f>
         <v>21220</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="23">
         <f>F3/D3</f>
         <v>1768.3333333333333</v>
       </c>
@@ -1890,24 +2963,24 @@
       <c r="A4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="23">
         <v>15000</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="24">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="23">
         <f t="shared" ref="E4:E6" si="0">B4*C4</f>
         <v>810</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="23">
         <f t="shared" ref="F4:F6" si="1">SUM(B4,E4)</f>
         <v>15810</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="23">
         <f>F4/D4</f>
         <v>1317.5</v>
       </c>
@@ -1916,24 +2989,24 @@
       <c r="A5" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="23">
         <v>10000</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="24">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="23">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="23">
         <f t="shared" si="1"/>
         <v>10250</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="23">
         <f>F5/D5</f>
         <v>854.16666666666663</v>
       </c>
@@ -1942,24 +3015,24 @@
       <c r="A6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="23">
         <v>60000</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="24">
         <v>0.246</v>
       </c>
       <c r="D6">
         <v>12</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="23">
         <f t="shared" si="0"/>
         <v>14760</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <f t="shared" si="1"/>
         <v>74760</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="23">
         <f>F6/D6</f>
         <v>6230</v>
       </c>
@@ -1996,18 +3069,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -2239,13 +3312,13 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
@@ -2382,17 +3455,17 @@
       <c r="D23" s="5"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
@@ -2621,18 +3694,18 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="F40" s="21" t="s">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="F40" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
@@ -3149,18 +4222,18 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="F64" s="22" t="s">
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="F64" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="3" t="s">
@@ -3726,16 +4799,16 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="3" t="s">
@@ -3957,18 +5030,18 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="B103" s="21"/>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="F103" s="21" t="s">
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="F103" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
@@ -4185,21 +5258,21 @@
       </c>
     </row>
     <row r="115" spans="1:13">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="F115" s="21" t="s">
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="F115" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
-      <c r="J115" s="21"/>
-      <c r="K115" s="21"/>
-      <c r="L115" s="21"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
+      <c r="K115" s="25"/>
+      <c r="L115" s="25"/>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="2" t="s">
@@ -4365,13 +5438,13 @@
       </c>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B127" s="21"/>
-      <c r="C127" s="21"/>
-      <c r="D127" s="21"/>
-      <c r="E127" s="21"/>
+      <c r="B127" s="25"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="2" t="s">
@@ -4503,18 +5576,18 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B138" s="21"/>
-      <c r="C138" s="21"/>
-      <c r="D138" s="21"/>
-      <c r="F138" s="21" t="s">
+      <c r="B138" s="25"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
+      <c r="F138" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="G138" s="21"/>
-      <c r="H138" s="21"/>
-      <c r="I138" s="21"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="2" t="s">
@@ -4728,23 +5801,23 @@
       </c>
     </row>
     <row r="150" spans="1:14">
-      <c r="A150" s="21" t="s">
+      <c r="A150" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B150" s="21"/>
-      <c r="C150" s="21"/>
-      <c r="D150" s="21"/>
-      <c r="E150" s="21"/>
-      <c r="F150" s="21"/>
-      <c r="H150" s="21" t="s">
+      <c r="B150" s="25"/>
+      <c r="C150" s="25"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="25"/>
+      <c r="H150" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="I150" s="21"/>
-      <c r="J150" s="21"/>
-      <c r="K150" s="21"/>
-      <c r="L150" s="21"/>
-      <c r="M150" s="21"/>
-      <c r="N150" s="21"/>
+      <c r="I150" s="25"/>
+      <c r="J150" s="25"/>
+      <c r="K150" s="25"/>
+      <c r="L150" s="25"/>
+      <c r="M150" s="25"/>
+      <c r="N150" s="25"/>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="2" t="s">
@@ -5333,14 +6406,14 @@
       </c>
     </row>
     <row r="175" spans="1:12">
-      <c r="B175" s="21" t="s">
+      <c r="B175" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="C175" s="21"/>
-      <c r="D175" s="21"/>
-      <c r="E175" s="21"/>
-      <c r="F175" s="21"/>
-      <c r="G175" s="21"/>
+      <c r="C175" s="25"/>
+      <c r="D175" s="25"/>
+      <c r="E175" s="25"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="25"/>
     </row>
     <row r="176" spans="1:12">
       <c r="B176" s="2" t="s">
@@ -5476,16 +6549,16 @@
       </c>
     </row>
     <row r="187" spans="2:9">
-      <c r="B187" s="21" t="s">
+      <c r="B187" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C187" s="21"/>
-      <c r="D187" s="21"/>
-      <c r="E187" s="21"/>
-      <c r="F187" s="21"/>
-      <c r="G187" s="21"/>
-      <c r="H187" s="21"/>
-      <c r="I187" s="21"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="25"/>
+      <c r="E187" s="25"/>
+      <c r="F187" s="25"/>
+      <c r="G187" s="25"/>
+      <c r="H187" s="25"/>
+      <c r="I187" s="25"/>
     </row>
     <row r="188" spans="2:9">
       <c r="B188" s="2" t="s">
@@ -5777,15 +6850,15 @@
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="21" t="s">
+      <c r="A203" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="B203" s="21"/>
-      <c r="C203" s="21"/>
-      <c r="D203" s="21"/>
-      <c r="E203" s="21"/>
-      <c r="F203" s="21"/>
-      <c r="G203" s="21"/>
+      <c r="B203" s="25"/>
+      <c r="C203" s="25"/>
+      <c r="D203" s="25"/>
+      <c r="E203" s="25"/>
+      <c r="F203" s="25"/>
+      <c r="G203" s="25"/>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="2" t="s">
@@ -6159,12 +7232,12 @@
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="21" t="s">
+      <c r="A229" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B229" s="21"/>
-      <c r="C229" s="21"/>
-      <c r="D229" s="21"/>
+      <c r="B229" s="25"/>
+      <c r="C229" s="25"/>
+      <c r="D229" s="25"/>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="2" t="s">
@@ -6286,6 +7359,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B175:G175"/>
+    <mergeCell ref="B187:I187"/>
+    <mergeCell ref="A203:G203"/>
+    <mergeCell ref="A229:D229"/>
+    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="F138:I138"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="H150:N150"/>
     <mergeCell ref="A115:D115"/>
     <mergeCell ref="F115:L115"/>
     <mergeCell ref="A1:D1"/>
@@ -6299,17 +7381,439 @@
     <mergeCell ref="A88:H88"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="F103:I103"/>
-    <mergeCell ref="B175:G175"/>
-    <mergeCell ref="B187:I187"/>
-    <mergeCell ref="A203:G203"/>
-    <mergeCell ref="A229:D229"/>
-    <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="F138:I138"/>
-    <mergeCell ref="A150:F150"/>
-    <mergeCell ref="H150:N150"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0487307B-08F0-483C-BF2E-4C1F372EC578}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>88</v>
+      </c>
+      <c r="D6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>99</v>
+      </c>
+      <c r="D7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <f>MIN(C2:C12)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <f>MAX(C2:C12)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="27">
+        <f>AVERAGE(C2:C12)</f>
+        <v>83.545454545454547</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" cm="1">
+        <f t="array" ref="C18">_xlfn.MODE.MULT(C2:C12)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19">
+        <f>MEDIAN(C2:C12)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20">
+        <f>COUNT(C2:C12)</f>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB1B7E2-8012-430B-BDD4-2C612F4533C9}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" activeCellId="1" sqref="B2:B6 H2:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="32">
+        <v>2000</v>
+      </c>
+      <c r="D2" s="31">
+        <v>0.21</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="32">
+        <f>C2*D2</f>
+        <v>420</v>
+      </c>
+      <c r="G2" s="32">
+        <f>SUM(C2,F2)</f>
+        <v>2420</v>
+      </c>
+      <c r="H2" s="32">
+        <f>G2/E2</f>
+        <v>806.66666666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="32">
+        <v>450</v>
+      </c>
+      <c r="D3" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32">
+        <f t="shared" ref="F3:F6" si="0">C3*D3</f>
+        <v>112.5</v>
+      </c>
+      <c r="G3" s="32">
+        <f t="shared" ref="G3:G6" si="1">SUM(C3,F3)</f>
+        <v>562.5</v>
+      </c>
+      <c r="H3" s="32">
+        <f t="shared" ref="H3:H6" si="2">G3/E3</f>
+        <v>187.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="32">
+        <v>975</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0.27</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="32">
+        <f t="shared" si="0"/>
+        <v>263.25</v>
+      </c>
+      <c r="G4" s="32">
+        <f t="shared" si="1"/>
+        <v>1238.25</v>
+      </c>
+      <c r="H4" s="32">
+        <f t="shared" si="2"/>
+        <v>412.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="32">
+        <v>1500</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.15</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="32">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="G5" s="32">
+        <f t="shared" si="1"/>
+        <v>1725</v>
+      </c>
+      <c r="H5" s="32">
+        <f t="shared" si="2"/>
+        <v>575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="32">
+        <v>780</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6" s="32">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="G6" s="32">
+        <f t="shared" si="1"/>
+        <v>975</v>
+      </c>
+      <c r="H6" s="32">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel_Practice_Student 2.xlsx
+++ b/Excel_Practice_Student 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johan\CODE\savvyDAP\dap-curriculum\Section02\activities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="303" documentId="13_ncr:1_{E18ACC2A-1543-4F25-BACB-5604B8AE5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30E91389-9787-448D-ADB3-57BE539508AE}"/>
+  <xr:revisionPtr revIDLastSave="388" documentId="13_ncr:1_{E18ACC2A-1543-4F25-BACB-5604B8AE5449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{991F5A25-793E-4B5A-B5DD-C8A7DE96442A}"/>
   <bookViews>
-    <workbookView xWindow="17172" yWindow="-108" windowWidth="17496" windowHeight="10416" firstSheet="1" activeTab="4" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
+    <workbookView xWindow="17172" yWindow="-108" windowWidth="17496" windowHeight="10416" xr2:uid="{8D4C5268-695D-4616-9E91-53744754ABC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Payroll" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="225">
   <si>
     <t>Employee Payroll</t>
   </si>
@@ -747,8 +747,8 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -1008,18 +1008,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2353,10 +2353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82D2CA6A-7C7B-42A2-BC97-252980B3146C}">
-  <dimension ref="A1:P19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2365,13 +2365,12 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:8" ht="15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2381,12 +2380,8 @@
       <c r="D1" s="21">
         <v>44853</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-    </row>
-    <row r="3" spans="1:16" ht="15">
+    </row>
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
@@ -2399,30 +2394,20 @@
       <c r="D3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="H3" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15">
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -2435,24 +2420,24 @@
       <c r="D4">
         <v>40</v>
       </c>
-      <c r="I4" s="1">
+      <c r="E4" s="1">
         <f>C4*D4</f>
         <v>400</v>
       </c>
-      <c r="J4">
+      <c r="F4">
         <f>IF(D4&gt;40,D4-40,0)</f>
         <v>0</v>
       </c>
-      <c r="O4" s="1">
-        <f>0.5*J4*C4</f>
+      <c r="G4" s="1">
+        <f>0.5*F4*C4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="1">
-        <f>SUM(I4,O4)</f>
+      <c r="H4" s="1">
+        <f>SUM(E4,G4)</f>
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15">
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2465,24 +2450,24 @@
       <c r="D5">
         <v>35</v>
       </c>
-      <c r="I5" s="1">
+      <c r="E5" s="1">
         <f>C5*D5</f>
         <v>525</v>
       </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J14" si="0">IF(D5&gt;40,D5-40,0)</f>
+      <c r="F5">
+        <f t="shared" ref="F5:F14" si="0">IF(D5&gt;40,D5-40,0)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="1">
-        <f>0.5*J5*C5</f>
+      <c r="G5" s="1">
+        <f>0.5*F5*C5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="1">
-        <f t="shared" ref="P5:P14" si="1">SUM(I5,O5)</f>
+      <c r="H5" s="1">
+        <f>SUM(E5,G5)</f>
         <v>525</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15">
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -2495,24 +2480,24 @@
       <c r="D6">
         <v>30</v>
       </c>
-      <c r="I6" s="1">
+      <c r="E6" s="1">
         <f>C6*D6</f>
         <v>105</v>
       </c>
-      <c r="J6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O6" s="1">
-        <f>0.5*J6*C6</f>
+      <c r="G6" s="1">
+        <f>0.5*F6*C6</f>
         <v>0</v>
       </c>
-      <c r="P6" s="1">
-        <f t="shared" si="1"/>
+      <c r="H6" s="1">
+        <f>SUM(E6,G6)</f>
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15">
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2525,24 +2510,24 @@
       <c r="D7">
         <v>50</v>
       </c>
-      <c r="I7" s="1">
+      <c r="E7" s="1">
         <f>C7*D7</f>
         <v>1005.0000000000001</v>
       </c>
-      <c r="J7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O7" s="1">
-        <f>0.5*J7*C7</f>
+      <c r="G7" s="1">
+        <f>0.5*F7*C7</f>
         <v>100.5</v>
       </c>
-      <c r="P7" s="1">
-        <f t="shared" si="1"/>
+      <c r="H7" s="1">
+        <f>SUM(E7,G7)</f>
         <v>1105.5</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15">
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2555,24 +2540,24 @@
       <c r="D8">
         <v>55</v>
       </c>
-      <c r="I8" s="1">
+      <c r="E8" s="1">
         <f>C8*D8</f>
         <v>316.25</v>
       </c>
-      <c r="J8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="O8" s="1">
-        <f>0.5*J8*C8</f>
+      <c r="G8" s="1">
+        <f>0.5*F8*C8</f>
         <v>43.125</v>
       </c>
-      <c r="P8" s="1">
-        <f t="shared" si="1"/>
+      <c r="H8" s="1">
+        <f>SUM(E8,G8)</f>
         <v>359.375</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15">
+    <row r="9" spans="1:8" ht="15">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2585,24 +2570,24 @@
       <c r="D9">
         <v>45</v>
       </c>
-      <c r="I9" s="1">
+      <c r="E9" s="1">
         <f>C9*D9</f>
         <v>540</v>
       </c>
-      <c r="J9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="O9" s="1">
-        <f>0.5*J9*C9</f>
+      <c r="G9" s="1">
+        <f>0.5*F9*C9</f>
         <v>30</v>
       </c>
-      <c r="P9" s="1">
-        <f t="shared" si="1"/>
+      <c r="H9" s="1">
+        <f>SUM(E9,G9)</f>
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15">
+    <row r="10" spans="1:8" ht="15">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2615,24 +2600,24 @@
       <c r="D10">
         <v>25</v>
       </c>
-      <c r="I10" s="1">
+      <c r="E10" s="1">
         <f>C10*D10</f>
         <v>163.75</v>
       </c>
-      <c r="J10">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O10" s="1">
-        <f>0.5*J10*C10</f>
+      <c r="G10" s="1">
+        <f>0.5*F10*C10</f>
         <v>0</v>
       </c>
-      <c r="P10" s="1">
-        <f t="shared" si="1"/>
+      <c r="H10" s="1">
+        <f>SUM(E10,G10)</f>
         <v>163.75</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15">
+    <row r="11" spans="1:8" ht="15">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2645,24 +2630,24 @@
       <c r="D11">
         <v>29</v>
       </c>
-      <c r="I11" s="1">
+      <c r="E11" s="1">
         <f>C11*D11</f>
         <v>870</v>
       </c>
-      <c r="J11">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" s="1">
-        <f>0.5*J11*C11</f>
+      <c r="G11" s="1">
+        <f>0.5*F11*C11</f>
         <v>0</v>
       </c>
-      <c r="P11" s="1">
-        <f t="shared" si="1"/>
+      <c r="H11" s="1">
+        <f>SUM(E11,G11)</f>
         <v>870</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2675,24 +2660,24 @@
       <c r="D12">
         <v>32</v>
       </c>
-      <c r="I12" s="1">
+      <c r="E12" s="1">
         <f>C12*D12</f>
         <v>2400</v>
       </c>
-      <c r="J12">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="1">
-        <f>0.5*J12*C12</f>
+      <c r="G12" s="1">
+        <f>0.5*F12*C12</f>
         <v>0</v>
       </c>
-      <c r="P12" s="1">
-        <f t="shared" si="1"/>
+      <c r="H12" s="1">
+        <f>SUM(E12,G12)</f>
         <v>2400</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2705,24 +2690,24 @@
       <c r="D13">
         <v>44</v>
       </c>
-      <c r="I13" s="1">
+      <c r="E13" s="1">
         <f>C13*D13</f>
         <v>1760</v>
       </c>
-      <c r="J13">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O13" s="1">
-        <f>0.5*J13*C13</f>
+      <c r="G13" s="1">
+        <f>0.5*F13*C13</f>
         <v>80</v>
       </c>
-      <c r="P13" s="1">
-        <f t="shared" si="1"/>
+      <c r="H13" s="1">
+        <f>SUM(E13,G13)</f>
         <v>1840</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15">
+    <row r="14" spans="1:8" ht="15">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2735,159 +2720,140 @@
       <c r="D14">
         <v>22</v>
       </c>
-      <c r="I14" s="1">
+      <c r="E14" s="1">
         <f>C14*D14</f>
         <v>550</v>
       </c>
-      <c r="J14">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O14" s="1">
-        <f>0.5*J14*C14</f>
+      <c r="G14" s="1">
+        <f>0.5*F14*C14</f>
         <v>0</v>
       </c>
-      <c r="P14" s="1">
-        <f t="shared" si="1"/>
+      <c r="H14" s="1">
+        <f>SUM(E14,G14)</f>
         <v>550</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15">
+    <row r="16" spans="1:8" ht="15">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ref="C16:D16" si="2">MAX(C4:C14)</f>
+        <f t="shared" ref="C16:D16" si="1">MAX(C4:C14)</f>
         <v>75</v>
       </c>
       <c r="D16" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="1">
-        <f>MAX(I4:I14)</f>
+      <c r="E16" s="1">
+        <f>MAX(E4:E14)</f>
         <v>2400</v>
       </c>
-      <c r="J16">
-        <f>MAX(J4:J14)</f>
+      <c r="F16">
+        <f>MAX(F4:F14)</f>
         <v>15</v>
       </c>
-      <c r="O16" s="1">
-        <f>MAX(O4:O14)</f>
+      <c r="G16" s="1">
+        <f>MAX(G4:G14)</f>
         <v>100.5</v>
       </c>
-      <c r="P16" s="1">
-        <f>MAX(P4:P14)</f>
+      <c r="H16" s="1">
+        <f>MAX(H4:H14)</f>
         <v>2400</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15">
+    <row r="17" spans="1:8" ht="15">
       <c r="A17" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C17:D17" si="3">MIN(C4:C14)</f>
+        <f t="shared" ref="C17:D17" si="2">MIN(C4:C14)</f>
         <v>3.5</v>
       </c>
       <c r="D17" s="22">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E17" s="1">
+        <f>MIN(E4:E14)</f>
+        <v>105</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17:H17" si="3">MIN(F4:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="1">
-        <f>MIN(I4:I14)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="J17">
-        <f t="shared" ref="J17:P17" si="4">MIN(J4:J14)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="1">
-        <f t="shared" si="4"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="15">
+    </row>
+    <row r="18" spans="1:8" ht="15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ref="C18:D18" si="5">AVERAGE(C4:C14)</f>
+        <f t="shared" ref="C18:D18" si="4">AVERAGE(C4:C14)</f>
         <v>22.081818181818178</v>
       </c>
       <c r="D18" s="22">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="E18" s="1">
+        <f>AVERAGE(E4:E14)</f>
+        <v>785</v>
+      </c>
+      <c r="F18" s="22">
+        <f t="shared" ref="F18:H18" si="5">AVERAGE(F4:F14)</f>
+        <v>3.0909090909090908</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="1">
-        <f>AVERAGE(I4:I14)</f>
-        <v>785</v>
-      </c>
-      <c r="J18" s="22">
-        <f t="shared" ref="J18:P18" si="6">AVERAGE(J4:J14)</f>
-        <v>3.0909090909090908</v>
-      </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="1">
-        <f t="shared" si="6"/>
         <v>23.056818181818183</v>
       </c>
-      <c r="P18" s="1">
-        <f t="shared" si="6"/>
+      <c r="H18" s="1">
+        <f t="shared" si="5"/>
         <v>808.05681818181813</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15">
+    <row r="19" spans="1:8" ht="15">
       <c r="A19" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ref="C19:D19" si="7">SUM(C4:C14)</f>
+        <f t="shared" ref="C19:D19" si="6">SUM(C4:C14)</f>
         <v>242.89999999999998</v>
       </c>
       <c r="D19" s="22">
+        <f t="shared" si="6"/>
+        <v>407</v>
+      </c>
+      <c r="E19" s="1">
+        <f>SUM(E4:E14)</f>
+        <v>8635</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:H19" si="7">SUM(F4:F14)</f>
+        <v>34</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="7"/>
-        <v>407</v>
-      </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="1">
-        <f>SUM(I4:I14)</f>
-        <v>8635</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ref="J19:P19" si="8">SUM(J4:J14)</f>
-        <v>34</v>
-      </c>
-      <c r="O19" s="1">
-        <f t="shared" si="8"/>
         <v>253.625</v>
       </c>
-      <c r="P19" s="1">
-        <f t="shared" si="8"/>
+      <c r="H19" s="1">
+        <f t="shared" si="7"/>
         <v>8888.625</v>
       </c>
     </row>
+    <row r="21" spans="1:8" ht="15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -3069,18 +3035,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="F1" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
@@ -3312,13 +3278,13 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
@@ -3455,17 +3421,17 @@
       <c r="D23" s="5"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
@@ -3694,18 +3660,18 @@
       </c>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="F40" s="25" t="s">
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="F40" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="3" t="s">
@@ -4222,18 +4188,18 @@
       </c>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="25" t="s">
+      <c r="A64" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="F64" s="26" t="s">
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="F64" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="3" t="s">
@@ -4799,16 +4765,16 @@
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="25" t="s">
+      <c r="A88" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="3" t="s">
@@ -5030,18 +4996,18 @@
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="F103" s="25" t="s">
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="F103" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
@@ -5258,21 +5224,21 @@
       </c>
     </row>
     <row r="115" spans="1:13">
-      <c r="A115" s="25" t="s">
+      <c r="A115" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="F115" s="25" t="s">
+      <c r="B115" s="31"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
+      <c r="F115" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="G115" s="25"/>
-      <c r="H115" s="25"/>
-      <c r="I115" s="25"/>
-      <c r="J115" s="25"/>
-      <c r="K115" s="25"/>
-      <c r="L115" s="25"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
+      <c r="J115" s="31"/>
+      <c r="K115" s="31"/>
+      <c r="L115" s="31"/>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="2" t="s">
@@ -5438,13 +5404,13 @@
       </c>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="25" t="s">
+      <c r="A127" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="31"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" s="2" t="s">
@@ -5576,18 +5542,18 @@
       </c>
     </row>
     <row r="138" spans="1:9">
-      <c r="A138" s="25" t="s">
+      <c r="A138" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B138" s="25"/>
-      <c r="C138" s="25"/>
-      <c r="D138" s="25"/>
-      <c r="F138" s="25" t="s">
+      <c r="B138" s="31"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="F138" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="G138" s="25"/>
-      <c r="H138" s="25"/>
-      <c r="I138" s="25"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
+      <c r="I138" s="31"/>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="2" t="s">
@@ -5801,23 +5767,23 @@
       </c>
     </row>
     <row r="150" spans="1:14">
-      <c r="A150" s="25" t="s">
+      <c r="A150" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B150" s="25"/>
-      <c r="C150" s="25"/>
-      <c r="D150" s="25"/>
-      <c r="E150" s="25"/>
-      <c r="F150" s="25"/>
-      <c r="H150" s="25" t="s">
+      <c r="B150" s="31"/>
+      <c r="C150" s="31"/>
+      <c r="D150" s="31"/>
+      <c r="E150" s="31"/>
+      <c r="F150" s="31"/>
+      <c r="H150" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="I150" s="25"/>
-      <c r="J150" s="25"/>
-      <c r="K150" s="25"/>
-      <c r="L150" s="25"/>
-      <c r="M150" s="25"/>
-      <c r="N150" s="25"/>
+      <c r="I150" s="31"/>
+      <c r="J150" s="31"/>
+      <c r="K150" s="31"/>
+      <c r="L150" s="31"/>
+      <c r="M150" s="31"/>
+      <c r="N150" s="31"/>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="2" t="s">
@@ -6406,14 +6372,14 @@
       </c>
     </row>
     <row r="175" spans="1:12">
-      <c r="B175" s="25" t="s">
+      <c r="B175" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="C175" s="25"/>
-      <c r="D175" s="25"/>
-      <c r="E175" s="25"/>
-      <c r="F175" s="25"/>
-      <c r="G175" s="25"/>
+      <c r="C175" s="31"/>
+      <c r="D175" s="31"/>
+      <c r="E175" s="31"/>
+      <c r="F175" s="31"/>
+      <c r="G175" s="31"/>
     </row>
     <row r="176" spans="1:12">
       <c r="B176" s="2" t="s">
@@ -6549,16 +6515,16 @@
       </c>
     </row>
     <row r="187" spans="2:9">
-      <c r="B187" s="25" t="s">
+      <c r="B187" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="C187" s="25"/>
-      <c r="D187" s="25"/>
-      <c r="E187" s="25"/>
-      <c r="F187" s="25"/>
-      <c r="G187" s="25"/>
-      <c r="H187" s="25"/>
-      <c r="I187" s="25"/>
+      <c r="C187" s="31"/>
+      <c r="D187" s="31"/>
+      <c r="E187" s="31"/>
+      <c r="F187" s="31"/>
+      <c r="G187" s="31"/>
+      <c r="H187" s="31"/>
+      <c r="I187" s="31"/>
     </row>
     <row r="188" spans="2:9">
       <c r="B188" s="2" t="s">
@@ -6850,15 +6816,15 @@
       </c>
     </row>
     <row r="203" spans="1:9">
-      <c r="A203" s="25" t="s">
+      <c r="A203" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="B203" s="25"/>
-      <c r="C203" s="25"/>
-      <c r="D203" s="25"/>
-      <c r="E203" s="25"/>
-      <c r="F203" s="25"/>
-      <c r="G203" s="25"/>
+      <c r="B203" s="31"/>
+      <c r="C203" s="31"/>
+      <c r="D203" s="31"/>
+      <c r="E203" s="31"/>
+      <c r="F203" s="31"/>
+      <c r="G203" s="31"/>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="2" t="s">
@@ -7232,12 +7198,12 @@
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229" s="25" t="s">
+      <c r="A229" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="B229" s="25"/>
-      <c r="C229" s="25"/>
-      <c r="D229" s="25"/>
+      <c r="B229" s="31"/>
+      <c r="C229" s="31"/>
+      <c r="D229" s="31"/>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="2" t="s">
@@ -7402,16 +7368,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7570,15 +7536,15 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="26" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="27" t="s">
         <v>214</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="28" t="s">
         <v>33</v>
       </c>
       <c r="C15">
@@ -7587,7 +7553,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>32</v>
       </c>
       <c r="C16">
@@ -7596,16 +7562,16 @@
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="25">
         <f>AVERAGE(C2:C12)</f>
         <v>83.545454545454547</v>
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>145</v>
       </c>
       <c r="C18" cm="1">
@@ -7614,7 +7580,7 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>140</v>
       </c>
       <c r="C19">
@@ -7623,7 +7589,7 @@
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="28" t="s">
         <v>85</v>
       </c>
       <c r="C20">
@@ -7640,8 +7606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB1B7E2-8012-430B-BDD4-2C612F4533C9}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" activeCellId="1" sqref="B2:B6 H2:H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7686,24 +7652,24 @@
       <c r="B2" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="30">
         <v>2000</v>
       </c>
-      <c r="D2" s="31">
+      <c r="D2" s="29">
         <v>0.21</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="30">
         <f>C2*D2</f>
         <v>420</v>
       </c>
-      <c r="G2" s="32">
+      <c r="G2" s="30">
         <f>SUM(C2,F2)</f>
         <v>2420</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="30">
         <f>G2/E2</f>
         <v>806.66666666666663</v>
       </c>
@@ -7712,24 +7678,24 @@
       <c r="B3" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="32">
+      <c r="C3" s="30">
         <v>450</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="29">
         <v>0.25</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="30">
         <f t="shared" ref="F3:F6" si="0">C3*D3</f>
         <v>112.5</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="30">
         <f t="shared" ref="G3:G6" si="1">SUM(C3,F3)</f>
         <v>562.5</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="30">
         <f t="shared" ref="H3:H6" si="2">G3/E3</f>
         <v>187.5</v>
       </c>
@@ -7738,24 +7704,24 @@
       <c r="B4" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="30">
         <v>975</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="29">
         <v>0.27</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="30">
         <f t="shared" si="0"/>
         <v>263.25</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="30">
         <f t="shared" si="1"/>
         <v>1238.25</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="30">
         <f t="shared" si="2"/>
         <v>412.75</v>
       </c>
@@ -7764,24 +7730,24 @@
       <c r="B5" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="30">
         <v>1500</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="29">
         <v>0.15</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="30">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="30">
         <f t="shared" si="1"/>
         <v>1725</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="30">
         <f t="shared" si="2"/>
         <v>575</v>
       </c>
@@ -7790,24 +7756,24 @@
       <c r="B6" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="30">
         <v>780</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="29">
         <v>0.25</v>
       </c>
       <c r="E6">
         <v>3</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="30">
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="30">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="30">
         <f t="shared" si="2"/>
         <v>325</v>
       </c>
